--- a/app/zadmin/zi_comp_patterns-2-ENU-CHN.xlsx
+++ b/app/zadmin/zi_comp_patterns-2-ENU-CHN.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t xml:space="preserve">Bodies</t>
   </si>
@@ -41,7 +41,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -51,13 +51,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">巴 </t>
@@ -67,13 +68,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">吧 </t>
@@ -86,7 +88,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -96,13 +98,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">木 </t>
@@ -112,13 +115,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">呆 </t>
@@ -131,7 +135,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -141,13 +145,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">巾 </t>
@@ -157,13 +162,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">吊 </t>
@@ -178,6 +184,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">又 </t>
     </r>
@@ -186,14 +193,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">又 </t>
     </r>
@@ -202,6 +211,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -210,6 +220,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">双</t>
     </r>
@@ -223,6 +234,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">戈 </t>
     </r>
@@ -231,14 +243,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">刂 </t>
     </r>
@@ -247,6 +261,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -255,6 +270,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">划</t>
     </r>
@@ -268,6 +284,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">辶 </t>
     </r>
@@ -276,14 +293,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">云 </t>
     </r>
@@ -292,6 +311,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -300,6 +320,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">运 </t>
     </r>
@@ -313,6 +334,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">勹 </t>
     </r>
@@ -321,14 +343,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">口 </t>
     </r>
@@ -337,6 +361,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -345,6 +370,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">句</t>
     </r>
@@ -358,6 +384,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">疒 </t>
     </r>
@@ -366,14 +393,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">了 </t>
     </r>
@@ -382,6 +411,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -390,6 +420,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">疗</t>
     </r>
@@ -403,6 +434,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日 </t>
     </r>
@@ -411,14 +443,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一 </t>
     </r>
@@ -427,6 +461,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -435,6 +470,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">旦</t>
     </r>
@@ -446,7 +482,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -456,13 +492,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -472,13 +509,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">回 </t>
@@ -491,7 +529,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -501,13 +539,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -517,13 +556,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">丨 </t>
@@ -533,13 +573,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">串 </t>
@@ -552,7 +593,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -562,13 +603,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">犬 </t>
@@ -578,13 +620,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -594,13 +637,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">哭 </t>
@@ -613,7 +657,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -623,13 +667,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">日 </t>
@@ -639,13 +684,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">日 </t>
@@ -655,13 +701,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">唱 </t>
@@ -676,6 +723,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">立 </t>
     </r>
@@ -684,14 +732,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">木 </t>
     </r>
@@ -700,14 +750,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">斤 </t>
     </r>
@@ -716,6 +768,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -724,6 +777,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新</t>
     </r>
@@ -737,6 +791,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手 </t>
     </r>
@@ -745,14 +800,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分 </t>
     </r>
@@ -761,14 +818,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手 </t>
     </r>
@@ -777,6 +836,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -785,6 +845,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">掰</t>
     </r>
@@ -796,7 +857,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -806,13 +867,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -822,13 +884,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -838,13 +901,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">品 </t>
@@ -859,6 +923,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">⺮ </t>
     </r>
@@ -867,14 +932,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月 </t>
     </r>
@@ -883,14 +950,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">力 </t>
     </r>
@@ -899,6 +968,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -907,6 +977,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">筋</t>
     </r>
@@ -920,6 +991,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">廴 </t>
     </r>
@@ -928,6 +1000,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+</t>
     </r>
@@ -936,6 +1009,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">丿 </t>
     </r>
@@ -944,14 +1018,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">止 </t>
     </r>
@@ -960,6 +1036,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -968,6 +1045,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">延</t>
     </r>
@@ -981,6 +1059,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">彳</t>
     </r>
@@ -989,14 +1068,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日 </t>
     </r>
@@ -1005,14 +1086,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一 </t>
     </r>
@@ -1021,14 +1104,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">寸 </t>
     </r>
@@ -1037,6 +1122,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1045,6 +1131,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">得</t>
     </r>
@@ -1058,6 +1145,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">幺 </t>
     </r>
@@ -1066,14 +1154,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白 </t>
     </r>
@@ -1082,14 +1172,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">幺 </t>
     </r>
@@ -1098,14 +1190,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">木 </t>
     </r>
@@ -1114,6 +1208,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1122,6 +1217,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">樂</t>
     </r>
@@ -1133,7 +1229,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1143,13 +1239,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1159,13 +1256,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1175,13 +1273,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1191,13 +1290,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">㗊 </t>
@@ -1210,7 +1310,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1220,13 +1320,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1236,13 +1337,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">犬 </t>
@@ -1252,13 +1354,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1268,13 +1371,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">口 </t>
@@ -1284,13 +1388,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">器 </t>
@@ -1305,6 +1410,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">亡 </t>
     </r>
@@ -1313,14 +1419,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">口 </t>
     </r>
@@ -1329,14 +1437,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1345,14 +1455,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">贝 </t>
     </r>
@@ -1361,14 +1473,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">凡 </t>
     </r>
@@ -1377,6 +1491,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1385,6 +1500,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">赢</t>
     </r>
@@ -1396,7 +1512,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">木 </t>
@@ -1406,13 +1522,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">爻  </t>
@@ -1422,13 +1539,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">木 </t>
@@ -1438,13 +1556,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">大 </t>
@@ -1454,13 +1573,14 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">虫 </t>
@@ -1470,104 +1590,1133 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">蠜 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">体数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">构成模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">频率 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">范例 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中内</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中外</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">亻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">蠜 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">体数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">构成模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">频率 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">范例 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">左-中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上-下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上-中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左-右</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中-右</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左下-中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中-中内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左上-中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中-下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中-中外</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上-中-下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左上-右上-下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左-右上-右下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左上-左下-右</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左-中-右</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上-左下-右下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上-左-右</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左下-上-中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左上-上-右上-下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左-右上-右-右下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左上-右上-左下-右下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左上-右上-左下-右下-中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上-中-左下-下-右下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左上-上-右上-中-下 </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">口 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">口  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">侣 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下 </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1582,6 +2731,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1603,21 +2753,32 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Segoe UI"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF3465A4"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1627,23 +2788,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF3465A4"/>
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF3465A4"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
-      <family val="3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1701,44 +2855,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1829,7 +2975,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.84"/>
   </cols>
   <sheetData>
@@ -2201,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2223,7 +3369,7 @@
       <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2231,7 +3377,7 @@
       <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -2245,7 +3391,7 @@
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="3" t="n">
@@ -2259,7 +3405,7 @@
       <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="3" t="n">
@@ -2273,7 +3419,7 @@
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="3" t="n">
@@ -2287,7 +3433,7 @@
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="3" t="n">
@@ -2301,7 +3447,7 @@
       <c r="A7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="3" t="n">
@@ -2315,7 +3461,7 @@
       <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -2329,7 +3475,7 @@
       <c r="A9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="3" t="n">
@@ -2343,7 +3489,7 @@
       <c r="A10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="3" t="n">
@@ -2357,7 +3503,7 @@
       <c r="A11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="3" t="n">
@@ -2371,7 +3517,7 @@
       <c r="A12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="3" t="n">
@@ -2385,7 +3531,7 @@
       <c r="A13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="3" t="n">
@@ -2399,22 +3545,22 @@
       <c r="A14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>70</v>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>35</v>
@@ -2427,8 +3573,8 @@
       <c r="A16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>71</v>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>27</v>
@@ -2441,8 +3587,8 @@
       <c r="A17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>72</v>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>20</v>
@@ -2455,8 +3601,8 @@
       <c r="A18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>73</v>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>14</v>
@@ -2469,8 +3615,8 @@
       <c r="A19" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>74</v>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>3</v>
@@ -2483,8 +3629,8 @@
       <c r="A20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>75</v>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>9</v>
@@ -2497,8 +3643,8 @@
       <c r="A21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>76</v>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>8</v>
@@ -2511,8 +3657,8 @@
       <c r="A22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>77</v>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>6</v>
@@ -2525,8 +3671,8 @@
       <c r="A23" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>78</v>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>5</v>
@@ -2539,8 +3685,8 @@
       <c r="A24" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>79</v>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>4</v>
@@ -2553,8 +3699,8 @@
       <c r="A25" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>80</v>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
